--- a/02-HTML&CSS/常用单词列表.xlsx
+++ b/02-HTML&CSS/常用单词列表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\课程计划\分阶段课程\02-HTML&amp;CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680A8E5E-B2FF-4DC7-BC2A-AC2AC3532223}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HTML常用单词" sheetId="2" r:id="rId1"/>
@@ -18,6 +17,7 @@
     <sheet name="class命名" sheetId="3" r:id="rId3"/>
     <sheet name="javascript" sheetId="4" r:id="rId4"/>
     <sheet name="jQuery" sheetId="5" r:id="rId5"/>
+    <sheet name="vue" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -2477,7 +2477,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2697,12 +2697,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2733,13 +2727,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3021,7 +3021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28286758-9D9E-4201-8CEB-4D984E3FDD7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3051,7 +3051,7 @@
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3059,12 +3059,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3072,7 +3072,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>203</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -3083,7 +3083,7 @@
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3094,7 +3094,7 @@
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3105,7 +3105,7 @@
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3280,7 +3280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3291,10 +3291,10 @@
   <cols>
     <col min="1" max="1" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="14" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="15" customWidth="1"/>
     <col min="7" max="7" width="41.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.21875" style="9" customWidth="1"/>
     <col min="9" max="11" width="20.6640625" style="9" customWidth="1"/>
@@ -3324,457 +3324,457 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="20" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="21" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="18" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="17" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="G22" s="14" t="s">
+      <c r="E22" s="23"/>
+      <c r="G22" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="14" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="13" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="17" t="s">
         <v>329</v>
       </c>
     </row>
@@ -3858,11 +3858,6 @@
     <row r="103" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G20:H20"/>
@@ -3872,6 +3867,11 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3880,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0B885-C649-4F18-99A1-8570A8328206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -4600,11 +4600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858690AC-260E-49ED-B681-5D0D9B37C126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5390,10 +5390,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A569B-A76B-4F62-A8C2-A1F03E52589C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -5751,4 +5751,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>